--- a/benchmarks/K562_enrichment_WGBSvs.enriched.xlsx
+++ b/benchmarks/K562_enrichment_WGBSvs.enriched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jingru\deconv\Data\Upload_processed\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD98A04A-BF41-47EC-9C7A-9BBFB7B2416F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038697B-A86C-4586-A402-C9968F03F22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="134">
   <si>
     <t>file_name</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>CCGG flanks</t>
-  </si>
-  <si>
-    <t>XR</t>
   </si>
   <si>
     <t>K562wgbs_10b-SNPfiltered_int.CCGG50_uniq</t>
@@ -779,12 +776,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -863,13 +861,13 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -877,10 +875,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -906,10 +904,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -921,13 +919,13 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G5">
         <v>87.2</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -935,10 +933,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -964,10 +962,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -979,13 +977,13 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G7">
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -993,10 +991,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1022,10 +1020,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -1037,13 +1035,13 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G9">
         <v>90.2</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -1051,10 +1049,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -1080,10 +1078,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1095,13 +1093,13 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G11">
         <v>91.1</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -1109,10 +1107,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
       <c r="C12">
         <v>40</v>
@@ -1138,10 +1136,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -1153,13 +1151,13 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G13">
         <v>91.6</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1167,10 +1165,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1196,10 +1194,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1211,13 +1209,13 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G15">
         <v>78.099999999999994</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1225,10 +1223,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -1254,10 +1252,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1269,13 +1267,13 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G17">
         <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1283,10 +1281,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
       </c>
       <c r="C18">
         <v>60</v>
@@ -1312,10 +1310,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -1327,13 +1325,13 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G19">
         <v>92.2</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -1341,10 +1339,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
       </c>
       <c r="C20">
         <v>70</v>
@@ -1370,10 +1368,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
       </c>
       <c r="C21">
         <v>80</v>
@@ -1399,10 +1397,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -1437,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1452,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1466,39 +1464,39 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
         <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1510,41 +1508,41 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G26">
         <v>56.8</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1553,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
         <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1568,53 +1566,53 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
         <v>53</v>
       </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G28">
         <v>27.7</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
       </c>
       <c r="C29">
         <v>20</v>
       </c>
       <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
         <v>53</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1626,53 +1624,53 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
       </c>
       <c r="C30">
         <v>20</v>
       </c>
       <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
         <v>53</v>
       </c>
-      <c r="E30" t="s">
-        <v>54</v>
-      </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G30">
         <v>60.7</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
         <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1684,53 +1682,53 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" t="s">
-        <v>54</v>
-      </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G32">
         <v>62.7</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
       </c>
       <c r="C33">
         <v>40</v>
       </c>
       <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
         <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1742,53 +1740,53 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
       </c>
       <c r="C34">
         <v>40</v>
       </c>
       <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
         <v>53</v>
       </c>
-      <c r="E34" t="s">
-        <v>54</v>
-      </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G34">
         <v>63.9</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
       <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
         <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1800,53 +1798,53 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
         <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
         <v>53</v>
       </c>
-      <c r="E36" t="s">
-        <v>54</v>
-      </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G36">
         <v>50.1</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
         <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
       </c>
       <c r="C37">
         <v>50</v>
       </c>
       <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
         <v>53</v>
-      </c>
-      <c r="E37" t="s">
-        <v>54</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1858,53 +1856,53 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
         <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
       </c>
       <c r="C38">
         <v>50</v>
       </c>
       <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
         <v>53</v>
       </c>
-      <c r="E38" t="s">
-        <v>54</v>
-      </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G38">
         <v>64.7</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
       </c>
       <c r="C39">
         <v>60</v>
       </c>
       <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
         <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>54</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1916,53 +1914,53 @@
         <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
       </c>
       <c r="C40">
         <v>60</v>
       </c>
       <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
         <v>53</v>
       </c>
-      <c r="E40" t="s">
-        <v>54</v>
-      </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G40">
         <v>65.5</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
       </c>
       <c r="C41">
         <v>70</v>
       </c>
       <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
         <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>54</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -1974,24 +1972,24 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
       </c>
       <c r="C42">
         <v>80</v>
       </c>
       <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
         <v>53</v>
-      </c>
-      <c r="E42" t="s">
-        <v>54</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2003,24 +2001,24 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
       </c>
       <c r="C43">
         <v>90</v>
       </c>
       <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
         <v>53</v>
-      </c>
-      <c r="E43" t="s">
-        <v>54</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2032,7 +2030,7 @@
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2046,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
         <v>93</v>
-      </c>
-      <c r="E44" t="s">
-        <v>94</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2061,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2075,39 +2073,39 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
         <v>93</v>
       </c>
-      <c r="E45" t="s">
-        <v>94</v>
-      </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
         <v>93</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2119,53 +2117,53 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>99</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
         <v>93</v>
       </c>
-      <c r="E47" t="s">
-        <v>94</v>
-      </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G47">
         <v>25.8</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" t="s">
-        <v>101</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
         <v>93</v>
-      </c>
-      <c r="E48" t="s">
-        <v>94</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2177,53 +2175,53 @@
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
         <v>93</v>
       </c>
-      <c r="E49" t="s">
-        <v>94</v>
-      </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G49">
         <v>5.0999999999999996</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
       </c>
       <c r="C50">
         <v>20</v>
       </c>
       <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
         <v>93</v>
-      </c>
-      <c r="E50" t="s">
-        <v>94</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2235,53 +2233,53 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" t="s">
-        <v>107</v>
       </c>
       <c r="C51">
         <v>20</v>
       </c>
       <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
         <v>93</v>
       </c>
-      <c r="E51" t="s">
-        <v>94</v>
-      </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G51">
         <v>31.4</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" t="s">
-        <v>109</v>
       </c>
       <c r="C52">
         <v>30</v>
       </c>
       <c r="D52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" t="s">
         <v>93</v>
-      </c>
-      <c r="E52" t="s">
-        <v>94</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -2293,53 +2291,53 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" t="s">
-        <v>111</v>
       </c>
       <c r="C53">
         <v>30</v>
       </c>
       <c r="D53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" t="s">
         <v>93</v>
       </c>
-      <c r="E53" t="s">
-        <v>94</v>
-      </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G53">
         <v>34</v>
       </c>
       <c r="H53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
       </c>
       <c r="C54">
         <v>40</v>
       </c>
       <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" t="s">
         <v>93</v>
-      </c>
-      <c r="E54" t="s">
-        <v>94</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -2351,53 +2349,53 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" t="s">
-        <v>115</v>
       </c>
       <c r="C55">
         <v>40</v>
       </c>
       <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" t="s">
         <v>93</v>
       </c>
-      <c r="E55" t="s">
-        <v>94</v>
-      </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G55">
         <v>35.700000000000003</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" t="s">
-        <v>117</v>
       </c>
       <c r="C56">
         <v>5</v>
       </c>
       <c r="D56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" t="s">
         <v>93</v>
-      </c>
-      <c r="E56" t="s">
-        <v>94</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -2409,53 +2407,53 @@
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" t="s">
-        <v>119</v>
       </c>
       <c r="C57">
         <v>5</v>
       </c>
       <c r="D57" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" t="s">
         <v>93</v>
       </c>
-      <c r="E57" t="s">
-        <v>94</v>
-      </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G57">
         <v>17.600000000000001</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" t="s">
-        <v>121</v>
       </c>
       <c r="C58">
         <v>50</v>
       </c>
       <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" t="s">
         <v>93</v>
-      </c>
-      <c r="E58" t="s">
-        <v>94</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -2467,53 +2465,53 @@
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>123</v>
       </c>
       <c r="C59">
         <v>50</v>
       </c>
       <c r="D59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" t="s">
         <v>93</v>
       </c>
-      <c r="E59" t="s">
-        <v>94</v>
-      </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G59">
         <v>36.9</v>
       </c>
       <c r="H59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>125</v>
       </c>
       <c r="C60">
         <v>60</v>
       </c>
       <c r="D60" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" t="s">
         <v>93</v>
-      </c>
-      <c r="E60" t="s">
-        <v>94</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -2525,53 +2523,53 @@
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
         <v>126</v>
-      </c>
-      <c r="B61" t="s">
-        <v>127</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="D61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" t="s">
         <v>93</v>
       </c>
-      <c r="E61" t="s">
-        <v>94</v>
-      </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G61">
         <v>37.9</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
         <v>128</v>
-      </c>
-      <c r="B62" t="s">
-        <v>129</v>
       </c>
       <c r="C62">
         <v>70</v>
       </c>
       <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" t="s">
         <v>93</v>
-      </c>
-      <c r="E62" t="s">
-        <v>94</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -2583,24 +2581,24 @@
         <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
         <v>130</v>
-      </c>
-      <c r="B63" t="s">
-        <v>131</v>
       </c>
       <c r="C63">
         <v>80</v>
       </c>
       <c r="D63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" t="s">
         <v>93</v>
-      </c>
-      <c r="E63" t="s">
-        <v>94</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -2612,24 +2610,24 @@
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
         <v>132</v>
-      </c>
-      <c r="B64" t="s">
-        <v>133</v>
       </c>
       <c r="C64">
         <v>90</v>
       </c>
       <c r="D64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" t="s">
         <v>93</v>
-      </c>
-      <c r="E64" t="s">
-        <v>94</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
@@ -2641,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
